--- a/data/new_data/xlsx/subway_data/line7.xlsx
+++ b/data/new_data/xlsx/subway_data/line7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F884C-777F-4B35-BBF3-2D1DC9CC3AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B9E83-039D-40E5-A515-09E4DD19CD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>f</t>
   </si>
@@ -104,6 +104,36 @@
   </si>
   <si>
     <t>——</t>
+  </si>
+  <si>
+    <t>7号线</t>
+  </si>
+  <si>
+    <t>terminalcode</t>
+  </si>
+  <si>
+    <t>terminalname</t>
+  </si>
+  <si>
+    <t>linecode</t>
+  </si>
+  <si>
+    <t>linename</t>
+  </si>
+  <si>
+    <t>firsttime</t>
+  </si>
+  <si>
+    <t>lasttime</t>
+  </si>
+  <si>
+    <t>wfirsttime</t>
+  </si>
+  <si>
+    <t>wlasttime</t>
+  </si>
+  <si>
+    <t>adjacentdistance</t>
   </si>
 </sst>
 </file>
@@ -456,687 +486,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>0.9604166666666667</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="1">
         <v>0.9604166666666667</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>147</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.96180555555555558</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>0.25416666666666671</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="1">
         <v>0.96180555555555558</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>1.361</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>0.96388888888888891</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.96388888888888891</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>1.61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>0.96527777777777779</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
         <v>0.96597222222222223</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>150</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.96805555555555556</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>0.96736111111111112</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>2.5070000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>151</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>0.97013888888888888</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>0.25486111111111109</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="1">
         <v>0.96944444444444444</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>3.4380000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.97291666666666665</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.97152777777777777</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>2.391</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>153</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>0.97430555555555554</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H10" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>1.7170000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>154</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.97569444444444442</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.97638888888888886</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>155</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="1">
         <v>0.97847222222222219</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12" s="1">
         <v>0.97847222222222219</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>2.294</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>156</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <v>0.97986111111111107</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H13" s="1">
         <v>0.98055555555555551</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>1.383</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.9819444444444444</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.9819444444444444</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>1.86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>157</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F15" s="1">
         <v>0.98402777777777772</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G15" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H15" s="1">
         <v>0.98333333333333328</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F16" s="1">
         <v>0.98541666666666672</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G16" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H16" s="1">
         <v>0.98541666666666672</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>158</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.9868055555555556</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.98750000000000004</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>1.141</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>159</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="1">
         <v>0.98888888888888893</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G18" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H18" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>160</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.99097222222222225</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G19" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H19" s="1">
         <v>0.99097222222222225</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>1.591</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="1">
         <v>0.99375000000000002</v>
       </c>
-      <c r="F19" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.99236111111111114</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>3.5019999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.99652777777777779</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H21" s="1">
         <v>0.99513888888888891</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>1.8460000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>0.99791666666666667</v>
       </c>
-      <c r="F21" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.99722222222222223</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>1.458</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.99930555555555556</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G23" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F24" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G24" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H24" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>1.482</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>162</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F25" s="1">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="F24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="1">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>1.5860000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>163</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G26" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H26" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>1.885</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>142</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F27" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H27" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>2.137</v>
       </c>
     </row>
